--- a/DataTableXl/DT_Language_CH.xlsx
+++ b/DataTableXl/DT_Language_CH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4C040B-B90F-4D16-A26A-9E8AAD42FA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F8C7749-7CC3-43AB-90E2-BF38C037319A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905C017F-8342-4549-9828-6AD3251151B4}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905C017F-8342-4549-9828-6AD3251151B4}"/>
   </bookViews>
   <sheets>
     <sheet name="DT_Language_CH" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
   <si>
     <t>---</t>
   </si>
@@ -34,112 +34,324 @@
     <t>Language_2</t>
   </si>
   <si>
+    <t>土制钢</t>
+  </si>
+  <si>
+    <t>加固钢</t>
+  </si>
+  <si>
+    <t>结构钢</t>
+  </si>
+  <si>
+    <t>工程钢</t>
+  </si>
+  <si>
+    <t>感知学</t>
+  </si>
+  <si>
+    <t>地图学</t>
+  </si>
+  <si>
+    <t>计时学</t>
+  </si>
+  <si>
+    <t>统计学</t>
+  </si>
+  <si>
+    <t>致密内衣</t>
+  </si>
+  <si>
+    <t>防刺内衬</t>
+  </si>
+  <si>
+    <t>合成韧布</t>
+  </si>
+  <si>
+    <t>反疫面料</t>
+  </si>
+  <si>
+    <t>越野装备</t>
+  </si>
+  <si>
+    <t>探索装备</t>
+  </si>
+  <si>
+    <t>勘探装备</t>
+  </si>
+  <si>
+    <t>侦察装备</t>
+  </si>
+  <si>
+    <t>认知训练</t>
+  </si>
+  <si>
+    <t>应变训练</t>
+  </si>
+  <si>
+    <t>专注训练</t>
+  </si>
+  <si>
+    <t>军事训练</t>
+  </si>
+  <si>
+    <t>地脉箭</t>
+  </si>
+  <si>
+    <t>碎片化摸鱼</t>
+  </si>
+  <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>巡回</t>
+  </si>
+  <si>
+    <t>复飞</t>
+  </si>
+  <si>
+    <t>染指黄花</t>
+  </si>
+  <si>
+    <t>人皇步</t>
+  </si>
+  <si>
+    <t>层级箭</t>
+  </si>
+  <si>
+    <t>梦醒时分</t>
+  </si>
+  <si>
+    <t>读卡器</t>
+  </si>
+  <si>
+    <t>魅色箭</t>
+  </si>
+  <si>
+    <t>普西宁</t>
+  </si>
+  <si>
+    <t>规避动作</t>
+  </si>
+  <si>
+    <t>地脉流动</t>
+  </si>
+  <si>
+    <t>疫术箭</t>
+  </si>
+  <si>
     <t>Language_3</t>
-  </si>
-  <si>
-    <t>土制钢</t>
-  </si>
-  <si>
-    <t>加固钢</t>
-  </si>
-  <si>
-    <t>结构钢</t>
-  </si>
-  <si>
-    <t>工程钢</t>
-  </si>
-  <si>
-    <t>感知学</t>
-  </si>
-  <si>
-    <t>地图学</t>
-  </si>
-  <si>
-    <t>计时学</t>
-  </si>
-  <si>
-    <t>统计学</t>
-  </si>
-  <si>
-    <t>致密内衣</t>
-  </si>
-  <si>
-    <t>防刺内衬</t>
-  </si>
-  <si>
-    <t>合成韧布</t>
-  </si>
-  <si>
-    <t>反疫面料</t>
-  </si>
-  <si>
-    <t>越野装备</t>
-  </si>
-  <si>
-    <t>探索装备</t>
-  </si>
-  <si>
-    <t>勘探装备</t>
-  </si>
-  <si>
-    <t>侦察装备</t>
-  </si>
-  <si>
-    <t>认知训练</t>
-  </si>
-  <si>
-    <t>应变训练</t>
-  </si>
-  <si>
-    <t>专注训练</t>
-  </si>
-  <si>
-    <t>军事训练</t>
-  </si>
-  <si>
-    <t>地脉箭</t>
-  </si>
-  <si>
-    <t>碎片化摸鱼</t>
-  </si>
-  <si>
-    <t>格挡</t>
-  </si>
-  <si>
-    <t>巡回</t>
-  </si>
-  <si>
-    <t>复飞</t>
-  </si>
-  <si>
-    <t>染指黄花</t>
-  </si>
-  <si>
-    <t>人皇步</t>
-  </si>
-  <si>
-    <t>层级箭</t>
-  </si>
-  <si>
-    <t>梦醒时分</t>
-  </si>
-  <si>
-    <t>读卡器</t>
-  </si>
-  <si>
-    <t>魅色箭</t>
-  </si>
-  <si>
-    <t>普西宁</t>
-  </si>
-  <si>
-    <t>规避动作</t>
-  </si>
-  <si>
-    <t>地脉流动</t>
-  </si>
-  <si>
-    <t>疫术箭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language_4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色：卡牌结算结束后退回50%费用</t>
+  </si>
+  <si>
+    <t>对敌对目标造成伤害，并迁移其所有负面效果至他的后一个单位上</t>
+  </si>
+  <si>
+    <t>撕裂，感染与重组，发生在细小的微响间</t>
+  </si>
+  <si>
+    <t>红色：免疫“异位”减益_x000D_
+待命：效果数增加等同已执行卡牌的数值</t>
+  </si>
+  <si>
+    <t>回复费用</t>
+  </si>
+  <si>
+    <t>随时随地享受现代科技</t>
+  </si>
+  <si>
+    <t>白色：无效果</t>
+  </si>
+  <si>
+    <t>为自己临时生命值</t>
+  </si>
+  <si>
+    <t>说白了，就是躲</t>
+  </si>
+  <si>
+    <t>循环1/3_x000D_
+单轮激活费用为1，循环总次数为3</t>
+  </si>
+  <si>
+    <t>其实这张照片是在飞机发动机后面拍的</t>
+  </si>
+  <si>
+    <t>从牌库中抽取若干张牌，直到手牌区满</t>
+  </si>
+  <si>
+    <t>重返签年之剩</t>
+  </si>
+  <si>
+    <t>白色：无效果_x000D_
+损耗：卡牌激活后会失效</t>
+  </si>
+  <si>
+    <t>1回合内，同方造成伤害会对目标附加1回合的“木毒”_x000D_
+木毒：根据剩余时间造成伤害，可叠加</t>
+  </si>
+  <si>
+    <t>至今老歪脖子树还为这朵金花耿耿于怀</t>
+  </si>
+  <si>
+    <t>持有者获得1层效果：闪避_x000D_
+闪避：每一层使单位完全承受1次伤害。</t>
+  </si>
+  <si>
+    <t>你什么意思！你才中二呢！有点童心不好吗！</t>
+  </si>
+  <si>
+    <t>对敌对目标造成伤害，并使目标的所有buff等级翻倍</t>
+  </si>
+  <si>
+    <t>吾心吾行澄如明镜，所作所为皆为正义</t>
+  </si>
+  <si>
+    <t>回复卡牌拥有者30点生命值，并立刻进行洗牌</t>
+  </si>
+  <si>
+    <t>如同清晨5点舍友的闹钟，不关的那种</t>
+  </si>
+  <si>
+    <t>从牌库中选取一张牌加入手牌</t>
+  </si>
+  <si>
+    <t>您已迟到486小时26分钟51秒</t>
+  </si>
+  <si>
+    <t>对敌对目标造成常规伤害，并向其增添负面效果：“紫晶化”和“逝命”_x000D_
+紫晶化：Buff存在时，结算的目标护甲将会被无视_x000D_
+逝命：亡语，死亡时对相邻目标造成12点伤害</t>
+  </si>
+  <si>
+    <t>你也要尝尝吗？来一点开胃。</t>
+  </si>
+  <si>
+    <t>提供1护甲，并提高卡牌拥有者60%的感染度</t>
+  </si>
+  <si>
+    <t>冷启动，启动完人就是冷了</t>
+  </si>
+  <si>
+    <t>使队列中的所有拥有者与本卡相同的卡牌失效，并获得等同于失效卡牌数的闪避</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>同队列所有卡牌转变为紫色</t>
+  </si>
+  <si>
+    <t>对敌对目标造成常规伤害，结算时，敌人每有一级buff，最终伤害+3</t>
+  </si>
+  <si>
+    <t>地狱见</t>
+  </si>
+  <si>
+    <t>火羽</t>
+  </si>
+  <si>
+    <t>对敌对目标造成扩散2伤害，并施加1层点燃_x000D_
+扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害_x000D_
+点燃：回合结束每层造成3点伤害，清除并按照层数转化为对应等级的烧伤，可叠加_x000D_
+烧伤：目标受到的下一次治疗不产生效果，而是使该buff等级-1</t>
+  </si>
+  <si>
+    <t>你不快滚，在等什么？</t>
+  </si>
+  <si>
+    <t>蓄能长枪</t>
+  </si>
+  <si>
+    <t>对敌对目标造成扩散2伤害_x000D_
+扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害</t>
+  </si>
+  <si>
+    <t>蓄力步枪，还是要按住扳机的那种！</t>
+  </si>
+  <si>
+    <t>爆鸣弹</t>
+  </si>
+  <si>
+    <t>对敌对目标造成常规伤害，并镇压目标，同时施加4层恐惧，持续2回合_x000D_
+恐惧：每层使单位的意识降低10%_x000D_
+镇压：立刻使本轮目标的所有卡牌失效，并陷入遮蔽状态</t>
+  </si>
+  <si>
+    <t>小火车来喽~~~</t>
+  </si>
+  <si>
+    <t>自洁</t>
+  </si>
+  <si>
+    <t>摧毁一个最近激活的循环_x000D_
+回复费用_x000D_
+恢复卡牌拥有者生命值_x000D_
+使后一张牌的效果数+3</t>
+  </si>
+  <si>
+    <t>这个梳子的词条，甚至还有……改变画风？</t>
+  </si>
+  <si>
+    <t>永不饶恕</t>
+  </si>
+  <si>
+    <t>激活后使队列中的所有非同色卡牌失效_x000D_
+回复费用_x000D_
+使后一张牌效果数+10</t>
+  </si>
+  <si>
+    <t>土星自治领死了20万人，我们也应该要有这个觉悟吧</t>
+  </si>
+  <si>
+    <t>动员</t>
+  </si>
+  <si>
+    <t>使本卡牌左右的卡牌效果数增加等于效果数的数值</t>
+  </si>
+  <si>
+    <t>我们的心中都有一片血海，那就是天堂之战</t>
+  </si>
+  <si>
+    <t>对垒</t>
+  </si>
+  <si>
+    <t>激活后，将若干手牌插入队列，直到队列满或者手牌耗尽，并使这些卡牌的花费-2</t>
+  </si>
+  <si>
+    <t>奖池还在累计</t>
+  </si>
+  <si>
+    <t>撞击</t>
+  </si>
+  <si>
+    <t>对敌对目标造成伤害</t>
+  </si>
+  <si>
+    <t>史莱哇啊！</t>
+  </si>
+  <si>
+    <t>滋生</t>
+  </si>
+  <si>
+    <t>使拥有者与拥有者相邻的单位，感染提高10%</t>
+  </si>
+  <si>
+    <t>一团来自深层尘土味的紫雾</t>
+  </si>
+  <si>
+    <t>挥发</t>
+  </si>
+  <si>
+    <t>对敌对目标造成等同于卡牌拥有者感染*4的真实伤害</t>
+  </si>
+  <si>
+    <t>吡咕，吡咕！</t>
   </si>
 </sst>
 </file>
@@ -732,9 +944,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1091,13 +1306,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9F0066-4953-4908-A8B1-EAF2E2A083E5}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="59.21875" customWidth="1"/>
+    <col min="5" max="5" width="66.109375" customWidth="1"/>
+    <col min="6" max="6" width="49.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,10 +1333,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3001</v>
       </c>
@@ -1122,10 +1347,10 @@
         <v>3001</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3002</v>
       </c>
@@ -1133,10 +1358,10 @@
         <v>3002</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3003</v>
       </c>
@@ -1144,10 +1369,10 @@
         <v>3003</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3004</v>
       </c>
@@ -1155,10 +1380,10 @@
         <v>3004</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3005</v>
       </c>
@@ -1166,10 +1391,10 @@
         <v>3005</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3006</v>
       </c>
@@ -1177,10 +1402,10 @@
         <v>3006</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3007</v>
       </c>
@@ -1188,10 +1413,10 @@
         <v>3007</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3008</v>
       </c>
@@ -1199,10 +1424,10 @@
         <v>3008</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3009</v>
       </c>
@@ -1210,10 +1435,10 @@
         <v>3009</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3010</v>
       </c>
@@ -1221,10 +1446,10 @@
         <v>3010</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3011</v>
       </c>
@@ -1232,10 +1457,10 @@
         <v>3011</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3012</v>
       </c>
@@ -1243,10 +1468,10 @@
         <v>3012</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3013</v>
       </c>
@@ -1254,10 +1479,10 @@
         <v>3013</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3014</v>
       </c>
@@ -1265,10 +1490,10 @@
         <v>3014</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3015</v>
       </c>
@@ -1276,10 +1501,10 @@
         <v>3015</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3016</v>
       </c>
@@ -1287,10 +1512,10 @@
         <v>3016</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3017</v>
       </c>
@@ -1298,10 +1523,10 @@
         <v>3017</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3018</v>
       </c>
@@ -1309,10 +1534,10 @@
         <v>3018</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3019</v>
       </c>
@@ -1320,10 +1545,10 @@
         <v>3019</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3020</v>
       </c>
@@ -1331,10 +1556,10 @@
         <v>3020</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10101</v>
       </c>
@@ -1342,10 +1567,19 @@
         <v>10101</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10102</v>
       </c>
@@ -1353,10 +1587,19 @@
         <v>10102</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10103</v>
       </c>
@@ -1364,10 +1607,19 @@
         <v>10103</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10104</v>
       </c>
@@ -1375,10 +1627,19 @@
         <v>10104</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10105</v>
       </c>
@@ -1386,10 +1647,19 @@
         <v>10105</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10106</v>
       </c>
@@ -1397,10 +1667,19 @@
         <v>10106</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10107</v>
       </c>
@@ -1408,10 +1687,19 @@
         <v>10107</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10108</v>
       </c>
@@ -1419,10 +1707,19 @@
         <v>10108</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10109</v>
       </c>
@@ -1430,10 +1727,19 @@
         <v>10109</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10110</v>
       </c>
@@ -1441,10 +1747,19 @@
         <v>10110</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10111</v>
       </c>
@@ -1452,10 +1767,19 @@
         <v>10111</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10112</v>
       </c>
@@ -1463,10 +1787,19 @@
         <v>10112</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10113</v>
       </c>
@@ -1474,10 +1807,16 @@
         <v>10113</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10114</v>
       </c>
@@ -1485,10 +1824,16 @@
         <v>10114</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10115</v>
       </c>
@@ -1496,7 +1841,186 @@
         <v>10115</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10201</v>
+      </c>
+      <c r="B37">
+        <v>10201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10202</v>
+      </c>
+      <c r="B38">
+        <v>10202</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="262.2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10203</v>
+      </c>
+      <c r="B39">
+        <v>10203</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10204</v>
+      </c>
+      <c r="B40">
+        <v>10204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10205</v>
+      </c>
+      <c r="B41">
+        <v>10205</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10206</v>
+      </c>
+      <c r="B42">
+        <v>10206</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10207</v>
+      </c>
+      <c r="B43">
+        <v>10207</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20101</v>
+      </c>
+      <c r="B44">
+        <v>20101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20102</v>
+      </c>
+      <c r="B45">
+        <v>20102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20103</v>
+      </c>
+      <c r="B46">
+        <v>20103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/DataTableXl/DT_Language_CH.xlsx
+++ b/DataTableXl/DT_Language_CH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F8C7749-7CC3-43AB-90E2-BF38C037319A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1D9F8F-DCA1-46E5-B812-1A0160A4881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905C017F-8342-4549-9828-6AD3251151B4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="198">
   <si>
     <t>---</t>
   </si>
@@ -156,209 +156,588 @@
     <t>撕裂，感染与重组，发生在细小的微响间</t>
   </si>
   <si>
-    <t>红色：免疫“异位”减益_x000D_
+    <t>回复费用</t>
+  </si>
+  <si>
+    <t>随时随地享受现代科技</t>
+  </si>
+  <si>
+    <t>白色：无效果</t>
+  </si>
+  <si>
+    <t>为自己临时生命值</t>
+  </si>
+  <si>
+    <t>说白了，就是躲</t>
+  </si>
+  <si>
+    <t>其实这张照片是在飞机发动机后面拍的</t>
+  </si>
+  <si>
+    <t>从牌库中抽取若干张牌，直到手牌区满</t>
+  </si>
+  <si>
+    <t>重返签年之剩</t>
+  </si>
+  <si>
+    <t>至今老歪脖子树还为这朵金花耿耿于怀</t>
+  </si>
+  <si>
+    <t>你什么意思！你才中二呢！有点童心不好吗！</t>
+  </si>
+  <si>
+    <t>对敌对目标造成伤害，并使目标的所有buff等级翻倍</t>
+  </si>
+  <si>
+    <t>吾心吾行澄如明镜，所作所为皆为正义</t>
+  </si>
+  <si>
+    <t>回复卡牌拥有者30点生命值，并立刻进行洗牌</t>
+  </si>
+  <si>
+    <t>如同清晨5点舍友的闹钟，不关的那种</t>
+  </si>
+  <si>
+    <t>从牌库中选取一张牌加入手牌</t>
+  </si>
+  <si>
+    <t>您已迟到486小时26分钟51秒</t>
+  </si>
+  <si>
+    <t>你也要尝尝吗？来一点开胃。</t>
+  </si>
+  <si>
+    <t>提供1护甲，并提高卡牌拥有者60%的感染度</t>
+  </si>
+  <si>
+    <t>冷启动，启动完人就是冷了</t>
+  </si>
+  <si>
+    <t>使队列中的所有拥有者与本卡相同的卡牌失效，并获得等同于失效卡牌数的闪避</t>
+  </si>
+  <si>
+    <t>同队列所有卡牌转变为紫色</t>
+  </si>
+  <si>
+    <t>对敌对目标造成常规伤害，结算时，敌人每有一级buff，最终伤害+3</t>
+  </si>
+  <si>
+    <t>地狱见</t>
+  </si>
+  <si>
+    <t>火羽</t>
+  </si>
+  <si>
+    <t>你不快滚，在等什么？</t>
+  </si>
+  <si>
+    <t>蓄力步枪，还是要按住扳机的那种！</t>
+  </si>
+  <si>
+    <t>爆鸣弹</t>
+  </si>
+  <si>
+    <t>小火车来喽~~~</t>
+  </si>
+  <si>
+    <t>自洁</t>
+  </si>
+  <si>
+    <t>这个梳子的词条，甚至还有……改变画风？</t>
+  </si>
+  <si>
+    <t>永不饶恕</t>
+  </si>
+  <si>
+    <t>土星自治领死了20万人，我们也应该要有这个觉悟吧</t>
+  </si>
+  <si>
+    <t>动员</t>
+  </si>
+  <si>
+    <t>使本卡牌左右的卡牌效果数增加等于效果数的数值</t>
+  </si>
+  <si>
+    <t>我们的心中都有一片血海，那就是天堂之战</t>
+  </si>
+  <si>
+    <t>对垒</t>
+  </si>
+  <si>
+    <t>激活后，将若干手牌插入队列，直到队列满或者手牌耗尽，并使这些卡牌的花费-2</t>
+  </si>
+  <si>
+    <t>奖池还在累计</t>
+  </si>
+  <si>
+    <t>撞击</t>
+  </si>
+  <si>
+    <t>对敌对目标造成伤害</t>
+  </si>
+  <si>
+    <t>史莱哇啊！</t>
+  </si>
+  <si>
+    <t>滋生</t>
+  </si>
+  <si>
+    <t>使拥有者与拥有者相邻的单位，感染提高10%</t>
+  </si>
+  <si>
+    <t>一团来自深层尘土味的紫雾</t>
+  </si>
+  <si>
+    <t>挥发</t>
+  </si>
+  <si>
+    <t>对敌对目标造成等同于卡牌拥有者感染*4的真实伤害</t>
+  </si>
+  <si>
+    <t>吡咕，吡咕！</t>
+  </si>
+  <si>
+    <t>掷弹筒</t>
+  </si>
+  <si>
+    <t>革命之火</t>
+  </si>
+  <si>
+    <t>致胜</t>
+  </si>
+  <si>
+    <t>穿甲火箭</t>
+  </si>
+  <si>
+    <t>野炮</t>
+  </si>
+  <si>
+    <t>闪击</t>
+  </si>
+  <si>
+    <t>红色：自由进入双方队列，不承受“异位”减益</t>
+  </si>
+  <si>
+    <t>对敌对目标造成扩散2伤害，并施加1层点燃
+扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害
+点燃：回合结束每层造成3点伤害，清除并按照层数转化为对应等级的烧伤，可叠加
+烧伤：目标受到的下一次治疗不产生效果，而是使该buff等级-1</t>
+  </si>
+  <si>
+    <t>红色：自由进入双方队列，不承受“异位”减益
 待命：效果数增加等同已执行卡牌的数值</t>
   </si>
   <si>
-    <t>回复费用</t>
-  </si>
-  <si>
-    <t>随时随地享受现代科技</t>
-  </si>
-  <si>
-    <t>白色：无效果</t>
-  </si>
-  <si>
-    <t>为自己临时生命值</t>
-  </si>
-  <si>
-    <t>说白了，就是躲</t>
-  </si>
-  <si>
-    <t>循环1/3_x000D_
+    <t>对敌对目标造成扩散2伤害
+扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害</t>
+  </si>
+  <si>
+    <t>对敌对目标造成常规伤害，并镇压目标，同时施加4层恐惧，持续2回合
+恐惧：每层使单位的意识降低10%
+镇压：立刻使本轮目标的所有卡牌失效，并陷入遮蔽状态</t>
+  </si>
+  <si>
+    <t>黄色：不计入速度判断
+易碎：卡牌激活后失效</t>
+  </si>
+  <si>
+    <r>
+      <t>摧毁一个最近激活的循环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回复费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恢复卡牌拥有者生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使后一张牌的效果数+3</t>
+    </r>
+  </si>
+  <si>
+    <t>激活后使队列中的所有非同色卡牌失效
+回复费用
+使后一张牌效果数+10</t>
+  </si>
+  <si>
+    <t>红色：自由进入双方队列，不承受“异位”减益
+易碎：卡牌激活后失效</t>
+  </si>
+  <si>
+    <t>使拥有者获得持续3回合的效果：革命之火
+革命之火：每次有卡牌失效时，记入等级+1；每一层使单位拥有的卡牌效果数增加等同等级的效果数。</t>
+  </si>
+  <si>
+    <t>枪口会射出血液，但不会射出鲜花</t>
+  </si>
+  <si>
+    <t>使本队列未失效卡牌中费用最高和最低的卡牌失效</t>
+  </si>
+  <si>
+    <t>来！看看谁比较硬！</t>
+  </si>
+  <si>
+    <t>红色：自由进入双方队列，不承受“异位”减益
+单边：目标的偏执与抵抗均视为0，且结算时无视临时生命值
+易碎：卡牌激活后失效
+一次性：弃牌时销毁</t>
+  </si>
+  <si>
+    <t>对敌对目标造成扩散2伤害，并施加1层点燃，弃牌时移除
+扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害
+点燃：回合结束每层造成3点伤害，清除并按照层数转化为对应等级的烧伤，可叠加
+烧伤：目标受到的下一次治疗不产生效果，而是使该buff等级-1</t>
+  </si>
+  <si>
+    <t>有必要揣火箭筒在身上吗?</t>
+  </si>
+  <si>
+    <t>红色：自由进入双方队列，不承受“异位”减益
+单边：目标的偏执与抵抗均视为0，且结算时无视临时生命值</t>
+  </si>
+  <si>
+    <t>黄色：不计入速度判断
+加速：卡牌使队列的速度-2</t>
+  </si>
+  <si>
+    <t>该牌没有激活效果</t>
+  </si>
+  <si>
+    <t>我看不止是火星血脉觉醒了</t>
+  </si>
+  <si>
+    <t>美丽新世界</t>
+  </si>
+  <si>
+    <t>百万英镑</t>
+  </si>
+  <si>
+    <t>主管</t>
+  </si>
+  <si>
+    <t>冷藏</t>
+  </si>
+  <si>
+    <t>弧光打击</t>
+  </si>
+  <si>
+    <t>金融风暴</t>
+  </si>
+  <si>
+    <t>封锁</t>
+  </si>
+  <si>
+    <t>驱动星门秘钥</t>
+  </si>
+  <si>
+    <t>南向颠覆特快</t>
+  </si>
+  <si>
+    <t>公海</t>
+  </si>
+  <si>
+    <t>魔术</t>
+  </si>
+  <si>
+    <t>马奇诺防线</t>
+  </si>
+  <si>
+    <t>黄色：不计入速度判断</t>
+  </si>
+  <si>
+    <t>循环0/10</t>
+  </si>
+  <si>
+    <t>谁控制现在，谁就控制过去；谁控制过去，谁就控制未来；</t>
+  </si>
+  <si>
+    <t>激活后获得1个持续1回合的增益：期货
+期货：每层使回合结束回复8点费用，可叠加</t>
+  </si>
+  <si>
+    <t>为什么不是法郎？</t>
+  </si>
+  <si>
+    <t>循环1/4，每次激活循环使后续卡牌效果数+1</t>
+  </si>
+  <si>
+    <t>认知滤网会梦见核心崩坏吗？</t>
+  </si>
+  <si>
+    <t>移出手牌中的所有【衍生集团】</t>
+  </si>
+  <si>
+    <t>有没有一种可能，养兵千日用兵一时</t>
+  </si>
+  <si>
+    <t>对敌方所有单位造成常规伤害，且每有一张【衍生集团】本卡牌效果数+6</t>
+  </si>
+  <si>
+    <t>我觉得，有必要同意丢点炸弹去跟他们谈判了</t>
+  </si>
+  <si>
+    <t>清空双方的费用，并获得等级等同于当前手牌中【衍生集团】数量的增益：期货</t>
+  </si>
+  <si>
+    <t>世道艰难。但它们总有出路不是吗？</t>
+  </si>
+  <si>
+    <t>激活后为敌人增加等同本卡牌费用的花费，使本回合不结算敌方队列</t>
+  </si>
+  <si>
+    <t>奥兰，为什么不用这7块钱创造一点借口？</t>
+  </si>
+  <si>
+    <t>在【私掠战机】、【司级舰】、【活星】中随机选取一张加入手牌，弃牌时销毁</t>
+  </si>
+  <si>
+    <t>不，独立自主很关键</t>
+  </si>
+  <si>
+    <t>黄色：不计入速度判断
+易碎：卡牌激活后失效
+一次性：弃牌时销毁</t>
+  </si>
+  <si>
+    <t>为敌人增加等同本卡牌费用的花费，根据手牌中【衍生集团】的数量，决定卡牌效果
+1张：敌方意识永久下降10%
+3张：敌方所有卡牌花费+2
+4张：清空所有敌方的护甲
+5张：敌方队伍中剩余血量最小的单位将会直接死亡
+8张：敌方所有单位的生命值将会被削弱至10点</t>
+  </si>
+  <si>
+    <t>关在笼子里的老虎依旧是老虎</t>
+  </si>
+  <si>
+    <t>为敌人增加等同本卡牌费用的花费，同时添加3张【衍生集团】到手中</t>
+  </si>
+  <si>
+    <t>等到巡洋舰下水，就是他们来请我们谈航行自由了</t>
+  </si>
+  <si>
+    <t>锁定目标，并将自己移动至队列末尾，再次触发对锁定目标造成伤害</t>
+  </si>
+  <si>
+    <t>想逃？巨大魔术</t>
+  </si>
+  <si>
+    <t>蓝色：激活后可以返回50%费用
+沉重：无法进入敌对队列
+公开：敌人会知晓你获得这张牌
+易碎：卡牌激活后失效</t>
+  </si>
+  <si>
+    <t>使另一个队列中的所有攻击的牌失效</t>
+  </si>
+  <si>
+    <t>你也血脉觉醒了是吧？</t>
+  </si>
+  <si>
+    <t>蓝色：卡牌结算结束后退回50%费用
+易碎：卡牌激活后失效</t>
+  </si>
+  <si>
+    <t>使本卡牌及其左右各1张卡牌拥有者的意识提高100％</t>
+  </si>
+  <si>
+    <t>玻海身上好香，玻海身上好香，玻海身上*打击声*</t>
+  </si>
+  <si>
+    <t>变更后一张卡牌的拥有者，使其属于玻海，弃牌后归还</t>
+  </si>
+  <si>
+    <t>可是我不。想。加。班。</t>
+  </si>
+  <si>
+    <t>执行后使左右各1张牌脱离失效状态</t>
+  </si>
+  <si>
+    <t>信仰，没见过信仰的力量吗？</t>
+  </si>
+  <si>
+    <t>以此卡牌为中心，复制左、右各1张牌范围内的最高效果数，并同步给该范围内的其他卡牌</t>
+  </si>
+  <si>
+    <t>有一种意识，凌驾于所有之上</t>
+  </si>
+  <si>
+    <t>使同阵营最靠近中场的单位意识提高200%</t>
+  </si>
+  <si>
+    <t>纸团里写着，弟部今日仍向西……</t>
+  </si>
+  <si>
+    <t>随机使1个未陷入致盲的敌人陷入致盲，持续4回合
+致盲：该角色的所有卡牌将被视为失效</t>
+  </si>
+  <si>
+    <t>他们说要给外派记者安全培训，于是就发了大功率闪光灯</t>
+  </si>
+  <si>
+    <t>给予我方最靠近中场单位50点临时生命值，并给予增益：高塔
+高塔：持续3回合，当临时生命值归零时buff消失；每次受到攻击的伤害将同步记入buff等级，当buff持续时间结束时，对随机敌方单位造成等级*3的伤害</t>
+  </si>
+  <si>
+    <t>不要拿着我的号冲！塔！*打击声*</t>
+  </si>
+  <si>
+    <t>扣除同队列所有卡牌持有者等同费用的生命值</t>
+  </si>
+  <si>
+    <t>你小心别把自己开死了</t>
+  </si>
+  <si>
+    <t>击其首，则尾至，击其尾，则！先科你给我回来！</t>
+  </si>
+  <si>
+    <t>变更前方卡牌的拥有者，使其属于玻海，并且复制一张带有移除的卡牌到手中。</t>
+  </si>
+  <si>
+    <t>怎么能这样呢，素质是不是有点低下了</t>
+  </si>
+  <si>
+    <t>激活后，卡牌轮序的执行方向将会立刻翻转</t>
+  </si>
+  <si>
+    <t>地新社魅力时刻</t>
+  </si>
+  <si>
+    <t>公关</t>
+  </si>
+  <si>
+    <t>超越</t>
+  </si>
+  <si>
+    <t>红旗</t>
+  </si>
+  <si>
+    <t>广播</t>
+  </si>
+  <si>
+    <t>手令</t>
+  </si>
+  <si>
+    <t>大闪光灯</t>
+  </si>
+  <si>
+    <t>高塔</t>
+  </si>
+  <si>
+    <t>中心开花</t>
+  </si>
+  <si>
+    <t>常山之蛇</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>新闻学</t>
+  </si>
+  <si>
+    <t>日薄西山</t>
+  </si>
+  <si>
+    <t>红色：免疫“异位”减益
+待命：效果数增加等同已执行卡牌的数值</t>
+  </si>
+  <si>
+    <t>循环1/3
 单轮激活费用为1，循环总次数为3</t>
   </si>
   <si>
-    <t>其实这张照片是在飞机发动机后面拍的</t>
-  </si>
-  <si>
-    <t>从牌库中抽取若干张牌，直到手牌区满</t>
-  </si>
-  <si>
-    <t>重返签年之剩</t>
-  </si>
-  <si>
-    <t>白色：无效果_x000D_
-损耗：卡牌激活后会失效</t>
-  </si>
-  <si>
-    <t>1回合内，同方造成伤害会对目标附加1回合的“木毒”_x000D_
+    <t>白色：无效果
+损耗：卡牌激活后会失效
+易碎：卡牌激活后失效</t>
+  </si>
+  <si>
+    <t>1回合内，同方造成伤害会对目标附加1回合的“木毒”
 木毒：根据剩余时间造成伤害，可叠加</t>
   </si>
   <si>
-    <t>至今老歪脖子树还为这朵金花耿耿于怀</t>
-  </si>
-  <si>
-    <t>持有者获得1层效果：闪避_x000D_
+    <t>持有者获得1层效果：闪避
 闪避：每一层使单位完全承受1次伤害。</t>
   </si>
   <si>
-    <t>你什么意思！你才中二呢！有点童心不好吗！</t>
-  </si>
-  <si>
-    <t>对敌对目标造成伤害，并使目标的所有buff等级翻倍</t>
-  </si>
-  <si>
-    <t>吾心吾行澄如明镜，所作所为皆为正义</t>
-  </si>
-  <si>
-    <t>回复卡牌拥有者30点生命值，并立刻进行洗牌</t>
-  </si>
-  <si>
-    <t>如同清晨5点舍友的闹钟，不关的那种</t>
-  </si>
-  <si>
-    <t>从牌库中选取一张牌加入手牌</t>
-  </si>
-  <si>
-    <t>您已迟到486小时26分钟51秒</t>
-  </si>
-  <si>
-    <t>对敌对目标造成常规伤害，并向其增添负面效果：“紫晶化”和“逝命”_x000D_
-紫晶化：Buff存在时，结算的目标护甲将会被无视_x000D_
+    <t>白色：无效果
+易碎：卡牌激活后失效</t>
+  </si>
+  <si>
+    <t>对敌对目标造成常规伤害，并向其增添负面效果：“紫晶化”和“逝命”
+紫晶化：Buff存在时，结算的目标护甲将会被无视
 逝命：亡语，死亡时对相邻目标造成12点伤害</t>
   </si>
   <si>
-    <t>你也要尝尝吗？来一点开胃。</t>
-  </si>
-  <si>
-    <t>提供1护甲，并提高卡牌拥有者60%的感染度</t>
-  </si>
-  <si>
-    <t>冷启动，启动完人就是冷了</t>
-  </si>
-  <si>
-    <t>使队列中的所有拥有者与本卡相同的卡牌失效，并获得等同于失效卡牌数的闪避</t>
-  </si>
-  <si>
-    <t>紫色</t>
-  </si>
-  <si>
-    <t>同队列所有卡牌转变为紫色</t>
-  </si>
-  <si>
-    <t>对敌对目标造成常规伤害，结算时，敌人每有一级buff，最终伤害+3</t>
-  </si>
-  <si>
-    <t>地狱见</t>
-  </si>
-  <si>
-    <t>火羽</t>
-  </si>
-  <si>
-    <t>对敌对目标造成扩散2伤害，并施加1层点燃_x000D_
-扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害_x000D_
-点燃：回合结束每层造成3点伤害，清除并按照层数转化为对应等级的烧伤，可叠加_x000D_
-烧伤：目标受到的下一次治疗不产生效果，而是使该buff等级-1</t>
-  </si>
-  <si>
-    <t>你不快滚，在等什么？</t>
-  </si>
-  <si>
-    <t>蓄能长枪</t>
-  </si>
-  <si>
-    <t>对敌对目标造成扩散2伤害_x000D_
-扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害</t>
-  </si>
-  <si>
-    <t>蓄力步枪，还是要按住扳机的那种！</t>
-  </si>
-  <si>
-    <t>爆鸣弹</t>
-  </si>
-  <si>
-    <t>对敌对目标造成常规伤害，并镇压目标，同时施加4层恐惧，持续2回合_x000D_
-恐惧：每层使单位的意识降低10%_x000D_
-镇压：立刻使本轮目标的所有卡牌失效，并陷入遮蔽状态</t>
-  </si>
-  <si>
-    <t>小火车来喽~~~</t>
-  </si>
-  <si>
-    <t>自洁</t>
-  </si>
-  <si>
-    <t>摧毁一个最近激活的循环_x000D_
-回复费用_x000D_
-恢复卡牌拥有者生命值_x000D_
-使后一张牌的效果数+3</t>
-  </si>
-  <si>
-    <t>这个梳子的词条，甚至还有……改变画风？</t>
-  </si>
-  <si>
-    <t>永不饶恕</t>
-  </si>
-  <si>
-    <t>激活后使队列中的所有非同色卡牌失效_x000D_
-回复费用_x000D_
-使后一张牌效果数+10</t>
-  </si>
-  <si>
-    <t>土星自治领死了20万人，我们也应该要有这个觉悟吧</t>
-  </si>
-  <si>
-    <t>动员</t>
-  </si>
-  <si>
-    <t>使本卡牌左右的卡牌效果数增加等于效果数的数值</t>
-  </si>
-  <si>
-    <t>我们的心中都有一片血海，那就是天堂之战</t>
-  </si>
-  <si>
-    <t>对垒</t>
-  </si>
-  <si>
-    <t>激活后，将若干手牌插入队列，直到队列满或者手牌耗尽，并使这些卡牌的花费-2</t>
-  </si>
-  <si>
-    <t>奖池还在累计</t>
-  </si>
-  <si>
-    <t>撞击</t>
-  </si>
-  <si>
-    <t>对敌对目标造成伤害</t>
-  </si>
-  <si>
-    <t>史莱哇啊！</t>
-  </si>
-  <si>
-    <t>滋生</t>
-  </si>
-  <si>
-    <t>使拥有者与拥有者相邻的单位，感染提高10%</t>
-  </si>
-  <si>
-    <t>一团来自深层尘土味的紫雾</t>
-  </si>
-  <si>
-    <t>挥发</t>
-  </si>
-  <si>
-    <t>对敌对目标造成等同于卡牌拥有者感染*4的真实伤害</t>
-  </si>
-  <si>
-    <t>吡咕，吡咕！</t>
+    <t>紫色
+易碎：卡牌激活后失效</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,8 +897,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDE3C36"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +1100,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9C99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -944,12 +1353,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1306,14 +1742,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9F0066-4953-4908-A8B1-EAF2E2A083E5}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="59.21875" customWidth="1"/>
     <col min="5" max="5" width="66.109375" customWidth="1"/>
     <col min="6" max="6" width="49.109375" customWidth="1"/>
@@ -1569,17 +2006,17 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10102</v>
       </c>
@@ -1589,14 +2026,14 @@
       <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,17 +2046,17 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10104</v>
       </c>
@@ -1629,14 +2066,14 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
+      <c r="D25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,17 +2086,17 @@
       <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10106</v>
       </c>
@@ -1669,17 +2106,17 @@
       <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10107</v>
       </c>
@@ -1689,14 +2126,14 @@
       <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" t="s">
-        <v>58</v>
+      <c r="D28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,17 +2146,17 @@
       <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10109</v>
       </c>
@@ -1729,14 +2166,14 @@
       <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
+      <c r="D30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,17 +2186,17 @@
       <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10111</v>
       </c>
@@ -1769,17 +2206,17 @@
       <c r="C32" t="s">
         <v>34</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10112</v>
       </c>
@@ -1789,17 +2226,17 @@
       <c r="C33" t="s">
         <v>35</v>
       </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10113</v>
       </c>
@@ -1809,14 +2246,15 @@
       <c r="C34" t="s">
         <v>36</v>
       </c>
-      <c r="D34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10114</v>
       </c>
@@ -1826,12 +2264,13 @@
       <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
+      <c r="D35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1843,184 +2282,777 @@
       <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10201</v>
       </c>
       <c r="B37">
         <v>10201</v>
       </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10202</v>
       </c>
       <c r="B38">
         <v>10202</v>
       </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="262.2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10203</v>
       </c>
       <c r="B39">
         <v>10203</v>
       </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10204</v>
       </c>
       <c r="B40">
         <v>10204</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10205</v>
       </c>
       <c r="B41">
         <v>10205</v>
       </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10206</v>
       </c>
       <c r="B42">
         <v>10206</v>
       </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10207</v>
       </c>
       <c r="B43">
         <v>10207</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10208</v>
+      </c>
+      <c r="B44">
+        <v>10208</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10209</v>
+      </c>
+      <c r="B45">
+        <v>10209</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F43" t="s">
+      <c r="D45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10210</v>
+      </c>
+      <c r="B46">
+        <v>10210</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="D46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10211</v>
+      </c>
+      <c r="B47">
+        <v>10211</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10212</v>
+      </c>
+      <c r="B48">
+        <v>10212</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10401</v>
+      </c>
+      <c r="B49">
+        <v>10401</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10402</v>
+      </c>
+      <c r="B50">
+        <v>10402</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10403</v>
+      </c>
+      <c r="B51">
+        <v>10403</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10404</v>
+      </c>
+      <c r="B52">
+        <v>10404</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10405</v>
+      </c>
+      <c r="B53">
+        <v>10405</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10406</v>
+      </c>
+      <c r="B54">
+        <v>10406</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10407</v>
+      </c>
+      <c r="B55">
+        <v>10407</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10408</v>
+      </c>
+      <c r="B56">
+        <v>10408</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>10409</v>
+      </c>
+      <c r="B57">
+        <v>10409</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>10410</v>
+      </c>
+      <c r="B58">
+        <v>10410</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10411</v>
+      </c>
+      <c r="B59">
+        <v>10411</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>10412</v>
+      </c>
+      <c r="B60">
+        <v>10412</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>10501</v>
+      </c>
+      <c r="B61">
+        <v>10501</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10502</v>
+      </c>
+      <c r="B62">
+        <v>10502</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>10503</v>
+      </c>
+      <c r="B63">
+        <v>10503</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10504</v>
+      </c>
+      <c r="B64">
+        <v>10504</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>10505</v>
+      </c>
+      <c r="B65">
+        <v>10505</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10506</v>
+      </c>
+      <c r="B66">
+        <v>10506</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>10507</v>
+      </c>
+      <c r="B67">
+        <v>10507</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10508</v>
+      </c>
+      <c r="B68">
+        <v>10508</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10509</v>
+      </c>
+      <c r="B69">
+        <v>10509</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>10510</v>
+      </c>
+      <c r="B70">
+        <v>10510</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10511</v>
+      </c>
+      <c r="B71">
+        <v>10511</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10512</v>
+      </c>
+      <c r="B72">
+        <v>10512</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>20101</v>
       </c>
-      <c r="B44">
+      <c r="B73">
         <v>20101</v>
       </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>20102</v>
       </c>
-      <c r="B45">
+      <c r="B74">
         <v>20102</v>
       </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>20103</v>
       </c>
-      <c r="B46">
+      <c r="B75">
         <v>20103</v>
       </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" t="s">
-        <v>103</v>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/DataTableXl/DT_Language_CH.xlsx
+++ b/DataTableXl/DT_Language_CH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1D9F8F-DCA1-46E5-B812-1A0160A4881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A360535A-473E-4400-8F3F-D7CFA4C3B441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905C017F-8342-4549-9828-6AD3251151B4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="245">
   <si>
     <t>---</t>
   </si>
@@ -732,12 +732,157 @@
     <t>紫色
 易碎：卡牌激活后失效</t>
   </si>
+  <si>
+    <t>义眼</t>
+  </si>
+  <si>
+    <t>鞭挞</t>
+  </si>
+  <si>
+    <t>休眠</t>
+  </si>
+  <si>
+    <t>雪月花</t>
+  </si>
+  <si>
+    <t>滚动麻烦</t>
+  </si>
+  <si>
+    <t>独立意识体</t>
+  </si>
+  <si>
+    <t>号令</t>
+  </si>
+  <si>
+    <t>飞孢</t>
+  </si>
+  <si>
+    <t>挽动</t>
+  </si>
+  <si>
+    <t>火树银花</t>
+  </si>
+  <si>
+    <t>张眼</t>
+  </si>
+  <si>
+    <t>合眼</t>
+  </si>
+  <si>
+    <t>窒息缠绕</t>
+  </si>
+  <si>
+    <t>蔓生</t>
+  </si>
+  <si>
+    <t>挽歌</t>
+  </si>
+  <si>
+    <t>植物弹幕</t>
+  </si>
+  <si>
+    <t>汲取</t>
+  </si>
+  <si>
+    <t>使敌对目标获取1层3时间恐惧</t>
+  </si>
+  <si>
+    <t>对敌对目标造成伤害，如果目标受到“恐惧”影响，则造成2次伤害</t>
+  </si>
+  <si>
+    <t>回复费用，并使拥有者进入遮蔽状态</t>
+  </si>
+  <si>
+    <t>对迎击目标造成3次范围伤害（非主体承受60%）</t>
+  </si>
+  <si>
+    <t>对迎击目标和除自身外的全场随机目标造成伤害，并对自身造成2点伤害</t>
+  </si>
+  <si>
+    <t>同队列所有卡牌的对应拥有者意识提高60%</t>
+  </si>
+  <si>
+    <t>循环2/2，并使后续卡牌的费用-1</t>
+  </si>
+  <si>
+    <t>使全场所有单位获得持续2回合的木毒
+木毒：根据剩余回合数造成伤害，无视护甲与格挡，可叠加</t>
+  </si>
+  <si>
+    <t>对迎击目标造成范围伤害（非主体承受80%）</t>
+  </si>
+  <si>
+    <t>扣除敌方目标等同费用的生命值</t>
+  </si>
+  <si>
+    <t>解除合眼效果，使卡牌拥有者获得效果：张眼
+张眼：受到的攻击伤害+2</t>
+  </si>
+  <si>
+    <t>解除张眼效果，使卡牌拥有者获得效果：合眼
+合眼：目标获得5层护甲</t>
+  </si>
+  <si>
+    <t>使迎击目标获得3层减益：窒息缠绕
+窒息缠绕：目标的所有卡牌将被视为失效，并且强制解除遮蔽状态，回合结束收到等同层数的伤害并使层数+1</t>
+  </si>
+  <si>
+    <t>在阵营中生成2个新芽</t>
+  </si>
+  <si>
+    <t>使同阵营除卡牌拥有者以外的所有单位意识提高50%</t>
+  </si>
+  <si>
+    <t>对迎击目标造成伤害</t>
+  </si>
+  <si>
+    <t>树树树树怎么还有眼啊！</t>
+  </si>
+  <si>
+    <t>尖锐的树枝在风中呼呼作响</t>
+  </si>
+  <si>
+    <t>躁动的树木陷入沉寂</t>
+  </si>
+  <si>
+    <t>你被这个东西抽了就不觉得好笑了！</t>
+  </si>
+  <si>
+    <t>灌！木！弹！弹！球！快跑！</t>
+  </si>
+  <si>
+    <t>这种香味……咳咳，火辣辣的</t>
+  </si>
+  <si>
+    <t>遁入智瞳</t>
+  </si>
+  <si>
+    <t>感受宁静</t>
+  </si>
+  <si>
+    <t>树树一家亲，大树举着小树打人</t>
+  </si>
+  <si>
+    <t>这就是为什么气晴和灰勒塔德再也不想去小树林里冒险</t>
+  </si>
+  <si>
+    <t>这就是为什么气晴和玻海再也不想去小树林里冒险</t>
+  </si>
+  <si>
+    <t>这就是为什么气晴和阿汤再也不想去小树林里冒险</t>
+  </si>
+  <si>
+    <t>这就是为什么气晴和欧鸥再也不想去小树林里冒险</t>
+  </si>
+  <si>
+    <t>为主体发光发热！</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,8 +1066,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,6 +1267,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEEAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1353,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,6 +1551,27 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1742,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9F0066-4953-4908-A8B1-EAF2E2A083E5}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3055,6 +3241,338 @@
         <v>90</v>
       </c>
     </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>21101</v>
+      </c>
+      <c r="B76">
+        <v>21101</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>21102</v>
+      </c>
+      <c r="B77">
+        <v>21102</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>21103</v>
+      </c>
+      <c r="B78">
+        <v>21103</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>21104</v>
+      </c>
+      <c r="B79">
+        <v>21104</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>21201</v>
+      </c>
+      <c r="B80">
+        <v>21201</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>21301</v>
+      </c>
+      <c r="B81">
+        <v>21301</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>21302</v>
+      </c>
+      <c r="B82">
+        <v>21302</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F82" s="16"/>
+    </row>
+    <row r="83" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>21303</v>
+      </c>
+      <c r="B83">
+        <v>21303</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>21304</v>
+      </c>
+      <c r="B84">
+        <v>21304</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>21401</v>
+      </c>
+      <c r="B85">
+        <v>21401</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>21402</v>
+      </c>
+      <c r="B86">
+        <v>21402</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F86" s="16"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>21403</v>
+      </c>
+      <c r="B87">
+        <v>21403</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F87" s="16"/>
+    </row>
+    <row r="88" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>21501</v>
+      </c>
+      <c r="B88">
+        <v>21501</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>21502</v>
+      </c>
+      <c r="B89">
+        <v>21502</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>21503</v>
+      </c>
+      <c r="B90">
+        <v>21503</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>21504</v>
+      </c>
+      <c r="B91">
+        <v>21504</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>21505</v>
+      </c>
+      <c r="B92">
+        <v>21505</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>21506</v>
+      </c>
+      <c r="B93">
+        <v>21506</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>21601</v>
+      </c>
+      <c r="B94">
+        <v>21601</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>21602</v>
+      </c>
+      <c r="B95">
+        <v>21602</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataTableXl/DT_Language_CH.xlsx
+++ b/DataTableXl/DT_Language_CH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A360535A-473E-4400-8F3F-D7CFA4C3B441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E903EB0-81D3-40E6-999A-F2585BA8731B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905C017F-8342-4549-9828-6AD3251151B4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="261">
   <si>
     <t>---</t>
   </si>
@@ -876,6 +876,69 @@
   </si>
   <si>
     <t>为主体发光发热！</t>
+  </si>
+  <si>
+    <t>欧鸥</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>气晴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰勒塔德</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金多</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻海</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>先科</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>星祝</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹佛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只没有名字的圈圈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色大鹅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石眼从芽</t>
+  </si>
+  <si>
+    <t>石眼烈性花冠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石眼风滚灌木</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石眼颂树</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石眼扭曲颂卫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石眼颂主</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1070,6 +1133,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1077,6 +1141,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1928,15 +1993,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9F0066-4953-4908-A8B1-EAF2E2A083E5}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="59.21875" customWidth="1"/>
     <col min="5" max="5" width="66.109375" customWidth="1"/>
     <col min="6" max="6" width="49.109375" customWidth="1"/>
@@ -1964,1612 +2029,1780 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3001</v>
+        <v>101</v>
       </c>
       <c r="B2">
-        <v>3001</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>245</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3002</v>
+        <v>102</v>
       </c>
       <c r="B3">
-        <v>3002</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3003</v>
+        <v>103</v>
       </c>
       <c r="B4">
-        <v>3003</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3004</v>
+        <v>104</v>
       </c>
       <c r="B5">
-        <v>3004</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3005</v>
+        <v>105</v>
       </c>
       <c r="B6">
-        <v>3005</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3006</v>
+        <v>106</v>
       </c>
       <c r="B7">
-        <v>3006</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3007</v>
+        <v>107</v>
       </c>
       <c r="B8">
-        <v>3007</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3008</v>
+        <v>108</v>
       </c>
       <c r="B9">
-        <v>3008</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3009</v>
+        <v>201</v>
       </c>
       <c r="B10">
-        <v>3009</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3010</v>
+        <v>211</v>
       </c>
       <c r="B11">
-        <v>3010</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>211</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3011</v>
+        <v>212</v>
       </c>
       <c r="B12">
-        <v>3011</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
+        <v>212</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3012</v>
+        <v>213</v>
       </c>
       <c r="B13">
-        <v>3012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+        <v>213</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3013</v>
+        <v>214</v>
       </c>
       <c r="B14">
-        <v>3013</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
+        <v>214</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3014</v>
+        <v>215</v>
       </c>
       <c r="B15">
-        <v>3014</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+        <v>215</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>216</v>
+      </c>
+      <c r="B16">
+        <v>216</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3001</v>
+      </c>
+      <c r="B17">
+        <v>3001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3002</v>
+      </c>
+      <c r="B18">
+        <v>3002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3003</v>
+      </c>
+      <c r="B19">
+        <v>3003</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3004</v>
+      </c>
+      <c r="B20">
+        <v>3004</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3005</v>
+      </c>
+      <c r="B21">
+        <v>3005</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3006</v>
+      </c>
+      <c r="B22">
+        <v>3006</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3007</v>
+      </c>
+      <c r="B23">
+        <v>3007</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3008</v>
+      </c>
+      <c r="B24">
+        <v>3008</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3009</v>
+      </c>
+      <c r="B25">
+        <v>3009</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3010</v>
+      </c>
+      <c r="B26">
+        <v>3010</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3011</v>
+      </c>
+      <c r="B27">
+        <v>3011</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3012</v>
+      </c>
+      <c r="B28">
+        <v>3012</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3013</v>
+      </c>
+      <c r="B29">
+        <v>3013</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3014</v>
+      </c>
+      <c r="B30">
+        <v>3014</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>3015</v>
       </c>
-      <c r="B16">
+      <c r="B31">
         <v>3015</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>3016</v>
       </c>
-      <c r="B17">
+      <c r="B32">
         <v>3016</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>3017</v>
       </c>
-      <c r="B18">
+      <c r="B33">
         <v>3017</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>3018</v>
       </c>
-      <c r="B19">
+      <c r="B34">
         <v>3018</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>3019</v>
       </c>
-      <c r="B20">
+      <c r="B35">
         <v>3019</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3020</v>
-      </c>
-      <c r="B21">
-        <v>3020</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10101</v>
-      </c>
-      <c r="B22">
-        <v>10101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>10102</v>
-      </c>
-      <c r="B23">
-        <v>10102</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>10103</v>
-      </c>
-      <c r="B24">
-        <v>10103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>10104</v>
-      </c>
-      <c r="B25">
-        <v>10104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>10105</v>
-      </c>
-      <c r="B26">
-        <v>10105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10106</v>
-      </c>
-      <c r="B27">
-        <v>10106</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>10107</v>
-      </c>
-      <c r="B28">
-        <v>10107</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>10108</v>
-      </c>
-      <c r="B29">
-        <v>10108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>10109</v>
-      </c>
-      <c r="B30">
-        <v>10109</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>10110</v>
-      </c>
-      <c r="B31">
-        <v>10110</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>10111</v>
-      </c>
-      <c r="B32">
-        <v>10111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>10112</v>
-      </c>
-      <c r="B33">
-        <v>10112</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>10113</v>
-      </c>
-      <c r="B34">
-        <v>10113</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>10114</v>
-      </c>
-      <c r="B35">
-        <v>10114</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10115</v>
+        <v>3020</v>
       </c>
       <c r="B36">
-        <v>10115</v>
+        <v>3020</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10101</v>
+      </c>
+      <c r="B37">
+        <v>10101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>10201</v>
-      </c>
-      <c r="B37">
-        <v>10201</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10202</v>
+        <v>10102</v>
       </c>
       <c r="B38">
-        <v>10202</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>10102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10203</v>
+        <v>10103</v>
       </c>
       <c r="B39">
-        <v>10203</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>10103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10204</v>
+        <v>10104</v>
       </c>
       <c r="B40">
-        <v>10204</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>10104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>103</v>
+        <v>46</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10205</v>
+        <v>10105</v>
       </c>
       <c r="B41">
-        <v>10205</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>10105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10206</v>
+        <v>10106</v>
       </c>
       <c r="B42">
-        <v>10206</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>10106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>10207</v>
+        <v>10107</v>
       </c>
       <c r="B43">
-        <v>10207</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>105</v>
+        <v>10107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10208</v>
+        <v>10108</v>
       </c>
       <c r="B44">
-        <v>10208</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>105</v>
+        <v>10108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10209</v>
+        <v>10109</v>
       </c>
       <c r="B45">
-        <v>10209</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+        <v>10109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>10210</v>
+        <v>10110</v>
       </c>
       <c r="B46">
-        <v>10210</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>10110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>10211</v>
+        <v>10111</v>
       </c>
       <c r="B47">
-        <v>10211</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>95</v>
+        <v>10111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10212</v>
+        <v>10112</v>
       </c>
       <c r="B48">
-        <v>10212</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>10112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>116</v>
+        <v>61</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>10401</v>
+        <v>10113</v>
       </c>
       <c r="B49">
-        <v>10401</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>117</v>
+        <v>10113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>131</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>10402</v>
+        <v>10114</v>
       </c>
       <c r="B50">
-        <v>10402</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>118</v>
+        <v>10114</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>10403</v>
+        <v>10115</v>
       </c>
       <c r="B51">
-        <v>10403</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>119</v>
+        <v>10115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>10404</v>
+        <v>10201</v>
       </c>
       <c r="B52">
-        <v>10404</v>
+        <v>10201</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>10405</v>
+        <v>10202</v>
       </c>
       <c r="B53">
-        <v>10405</v>
+        <v>10202</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>10406</v>
+        <v>10203</v>
       </c>
       <c r="B54">
-        <v>10406</v>
+        <v>10203</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>10407</v>
+        <v>10204</v>
       </c>
       <c r="B55">
-        <v>10407</v>
+        <v>10204</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>142</v>
+      <c r="E55" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>10408</v>
+        <v>10205</v>
       </c>
       <c r="B56">
-        <v>10408</v>
+        <v>10205</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>10409</v>
+        <v>10206</v>
       </c>
       <c r="B57">
-        <v>10409</v>
+        <v>10206</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>10410</v>
+        <v>10207</v>
       </c>
       <c r="B58">
-        <v>10410</v>
+        <v>10207</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>129</v>
+        <v>79</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10411</v>
+        <v>10208</v>
       </c>
       <c r="B59">
-        <v>10411</v>
+        <v>10208</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>129</v>
+        <v>92</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10412</v>
+        <v>10209</v>
       </c>
       <c r="B60">
-        <v>10412</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>10209</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>10501</v>
+        <v>10210</v>
       </c>
       <c r="B61">
-        <v>10501</v>
+        <v>10210</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>158</v>
+        <v>111</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>10502</v>
+        <v>10211</v>
       </c>
       <c r="B62">
-        <v>10502</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>179</v>
+        <v>10211</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>160</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10503</v>
+        <v>10212</v>
       </c>
       <c r="B63">
-        <v>10503</v>
+        <v>10212</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10504</v>
+        <v>10401</v>
       </c>
       <c r="B64">
-        <v>10504</v>
+        <v>10401</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>164</v>
+        <v>130</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>10505</v>
+        <v>10402</v>
       </c>
       <c r="B65">
-        <v>10505</v>
+        <v>10402</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>10506</v>
+        <v>10403</v>
       </c>
       <c r="B66">
-        <v>10506</v>
+        <v>10403</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>10507</v>
+        <v>10404</v>
       </c>
       <c r="B67">
-        <v>10507</v>
+        <v>10404</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>10508</v>
+        <v>10405</v>
       </c>
       <c r="B68">
-        <v>10508</v>
+        <v>10405</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>172</v>
+        <v>138</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>10509</v>
+        <v>10406</v>
       </c>
       <c r="B69">
-        <v>10509</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>186</v>
+        <v>10406</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="F69" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10510</v>
+        <v>10407</v>
       </c>
       <c r="B70">
-        <v>10510</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>187</v>
+        <v>10407</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>10511</v>
+        <v>10408</v>
       </c>
       <c r="B71">
-        <v>10511</v>
+        <v>10408</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>10512</v>
+        <v>10409</v>
       </c>
       <c r="B72">
-        <v>10512</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>189</v>
+        <v>10409</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20101</v>
+        <v>10410</v>
       </c>
       <c r="B73">
-        <v>20101</v>
-      </c>
-      <c r="C73" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" t="s">
-        <v>83</v>
-      </c>
-      <c r="F73" t="s">
-        <v>84</v>
+        <v>10410</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>20102</v>
+        <v>10411</v>
       </c>
       <c r="B74">
-        <v>20102</v>
-      </c>
-      <c r="C74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" t="s">
-        <v>86</v>
-      </c>
-      <c r="F74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10411</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20103</v>
+        <v>10412</v>
       </c>
       <c r="B75">
-        <v>20103</v>
-      </c>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10412</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>21101</v>
+        <v>10501</v>
       </c>
       <c r="B76">
-        <v>21101</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10501</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>21102</v>
+        <v>10502</v>
       </c>
       <c r="B77">
-        <v>21102</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10502</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>21103</v>
+        <v>10503</v>
       </c>
       <c r="B78">
-        <v>21103</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10503</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>21104</v>
+        <v>10504</v>
       </c>
       <c r="B79">
-        <v>21104</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10504</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>21201</v>
+        <v>10505</v>
       </c>
       <c r="B80">
-        <v>21201</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10505</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>21301</v>
+        <v>10506</v>
       </c>
       <c r="B81">
-        <v>21301</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="F81" s="16"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10506</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>21302</v>
+        <v>10507</v>
       </c>
       <c r="B82">
-        <v>21302</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F82" s="16"/>
+        <v>10507</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>21303</v>
+        <v>10508</v>
       </c>
       <c r="B83">
-        <v>21303</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10508</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>21304</v>
+        <v>10509</v>
       </c>
       <c r="B84">
-        <v>21304</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10509</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>21401</v>
+        <v>10510</v>
       </c>
       <c r="B85">
-        <v>21401</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10510</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>21402</v>
+        <v>10511</v>
       </c>
       <c r="B86">
-        <v>21402</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F86" s="16"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10511</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>21403</v>
+        <v>10512</v>
       </c>
       <c r="B87">
-        <v>21403</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F87" s="16"/>
-    </row>
-    <row r="88" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>10512</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>21501</v>
+        <v>20101</v>
       </c>
       <c r="B88">
-        <v>21501</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>20101</v>
+      </c>
+      <c r="C88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>21502</v>
+        <v>20102</v>
       </c>
       <c r="B89">
-        <v>21502</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>238</v>
+        <v>20102</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>21503</v>
+        <v>20103</v>
       </c>
       <c r="B90">
-        <v>21503</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>20103</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>21504</v>
+        <v>21101</v>
       </c>
       <c r="B91">
-        <v>21504</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F91" s="16" t="s">
-        <v>240</v>
+        <v>21101</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>21505</v>
+        <v>21102</v>
       </c>
       <c r="B92">
-        <v>21505</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>241</v>
+        <v>21102</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>21506</v>
+        <v>21103</v>
       </c>
       <c r="B93">
-        <v>21506</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>242</v>
+        <v>21103</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>21601</v>
+        <v>21104</v>
       </c>
       <c r="B94">
-        <v>21601</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>243</v>
+        <v>21104</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
+        <v>21201</v>
+      </c>
+      <c r="B95">
+        <v>21201</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>21301</v>
+      </c>
+      <c r="B96">
+        <v>21301</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F96" s="16"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>21302</v>
+      </c>
+      <c r="B97">
+        <v>21302</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>21303</v>
+      </c>
+      <c r="B98">
+        <v>21303</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>21304</v>
+      </c>
+      <c r="B99">
+        <v>21304</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>21401</v>
+      </c>
+      <c r="B100">
+        <v>21401</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>21402</v>
+      </c>
+      <c r="B101">
+        <v>21402</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F101" s="16"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>21403</v>
+      </c>
+      <c r="B102">
+        <v>21403</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>21501</v>
+      </c>
+      <c r="B103">
+        <v>21501</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>21502</v>
+      </c>
+      <c r="B104">
+        <v>21502</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>21503</v>
+      </c>
+      <c r="B105">
+        <v>21503</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>21504</v>
+      </c>
+      <c r="B106">
+        <v>21504</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>21505</v>
+      </c>
+      <c r="B107">
+        <v>21505</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>21506</v>
+      </c>
+      <c r="B108">
+        <v>21506</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>21601</v>
+      </c>
+      <c r="B109">
+        <v>21601</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>21602</v>
       </c>
-      <c r="B95">
+      <c r="B110">
         <v>21602</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C110" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E110" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F95" s="16" t="s">
+      <c r="F110" s="16" t="s">
         <v>244</v>
       </c>
     </row>
